--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed4/result_data_KNN.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.1</v>
+        <v>16.234</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.874</v>
+        <v>-13.547</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>5.484</v>
+        <v>5.703</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.372</v>
+        <v>-11.108</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -652,7 +652,7 @@
         <v>-22.15</v>
       </c>
       <c r="B13" t="n">
-        <v>5.703999999999999</v>
+        <v>5.601</v>
       </c>
       <c r="C13" t="n">
         <v>-15.83</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.574</v>
+        <v>-12.865</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.074</v>
+        <v>16.346</v>
       </c>
     </row>
     <row r="16">
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.970000000000001</v>
+        <v>5.534</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.352</v>
+        <v>5.01</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.038</v>
+        <v>-12.059</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.662000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -873,10 +873,10 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>6.156000000000001</v>
+        <v>6.331999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.786</v>
+        <v>-12.714</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,10 +890,10 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>7.447999999999999</v>
+        <v>6.628</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.712</v>
+        <v>-12.723</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -916,7 +916,7 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.71</v>
+        <v>16.872</v>
       </c>
     </row>
     <row r="29">
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.068</v>
+        <v>5.143</v>
       </c>
       <c r="C29" t="n">
-        <v>-10.674</v>
+        <v>-11.056</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.506</v>
+        <v>17.536</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.289999999999999</v>
+        <v>7.537000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.858</v>
+        <v>16.527</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.278</v>
+        <v>7.971999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.22</v>
+        <v>-13.238</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1080,13 +1080,13 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-13.332</v>
+        <v>-13.123</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>15.28</v>
+        <v>15.912</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.522</v>
+        <v>17.038</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.622</v>
+        <v>16.769</v>
       </c>
     </row>
     <row r="45">
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.625999999999999</v>
+        <v>5.736</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.496</v>
+        <v>16.535</v>
       </c>
     </row>
     <row r="46">
@@ -1233,13 +1233,13 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.042</v>
+        <v>-12.953</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.302</v>
+        <v>15.889</v>
       </c>
     </row>
     <row r="48">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.252</v>
+        <v>-11.036</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.166</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.5</v>
+        <v>-11.621</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1358,7 +1358,7 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.184</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="55">
@@ -1366,10 +1366,10 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.336</v>
+        <v>5.552</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.484</v>
+        <v>-13.244</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.88</v>
+        <v>5.147</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.344</v>
+        <v>16.48</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.508</v>
+        <v>16.323</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.878</v>
+        <v>17.389</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.062</v>
+        <v>17.248</v>
       </c>
     </row>
     <row r="68">
@@ -1604,10 +1604,10 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5</v>
+        <v>5.226000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.536</v>
+        <v>-10.732</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1624,13 +1624,13 @@
         <v>4.05</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.224</v>
+        <v>-11.959</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.376</v>
+        <v>17.482</v>
       </c>
     </row>
     <row r="71">
@@ -1723,10 +1723,10 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.234</v>
+        <v>5.891</v>
       </c>
       <c r="C76" t="n">
-        <v>-13.518</v>
+        <v>-12.587</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>8.481999999999999</v>
+        <v>7.523999999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1811,13 +1811,13 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.06</v>
+        <v>-13.237</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.25</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="82">
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>5.434</v>
+        <v>5.061</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.859999999999999</v>
+        <v>5</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.02</v>
+        <v>-13.98</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.672</v>
+        <v>16.287</v>
       </c>
     </row>
     <row r="89">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.07</v>
+        <v>5.976000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2032,7 +2032,7 @@
         <v>4.26</v>
       </c>
       <c r="C94" t="n">
-        <v>-11.202</v>
+        <v>-10.869</v>
       </c>
       <c r="D94" t="n">
         <v>-5.14</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.432</v>
+        <v>16.196</v>
       </c>
     </row>
     <row r="97">
@@ -2080,7 +2080,7 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>4.608</v>
+        <v>5.052</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.492</v>
+        <v>16.244</v>
       </c>
     </row>
     <row r="100">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.61</v>
+        <v>-12.951</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.52</v>
+        <v>-13.306</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
